--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_170.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_170.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32588-d614001-Reviews-Crescent_Bay_Inn-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>433</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>456</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Crescent-Bay-Inn.h9298562.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_170.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_170.xlsx
@@ -6777,7 +6777,7 @@
         <v>39983</v>
       </c>
       <c r="B2" t="n">
-        <v>133461</v>
+        <v>164296</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -6834,7 +6834,7 @@
         <v>39983</v>
       </c>
       <c r="B3" t="n">
-        <v>133462</v>
+        <v>164297</v>
       </c>
       <c r="C3" t="s">
         <v>53</v>
@@ -7023,7 +7023,7 @@
         <v>39983</v>
       </c>
       <c r="B6" t="n">
-        <v>133463</v>
+        <v>164298</v>
       </c>
       <c r="C6" t="s">
         <v>76</v>
@@ -7088,7 +7088,7 @@
         <v>39983</v>
       </c>
       <c r="B7" t="n">
-        <v>133464</v>
+        <v>164299</v>
       </c>
       <c r="C7" t="s">
         <v>83</v>
@@ -7153,7 +7153,7 @@
         <v>39983</v>
       </c>
       <c r="B8" t="n">
-        <v>133465</v>
+        <v>164300</v>
       </c>
       <c r="C8" t="s">
         <v>91</v>
@@ -7285,7 +7285,7 @@
         <v>39983</v>
       </c>
       <c r="B10" t="n">
-        <v>133466</v>
+        <v>164301</v>
       </c>
       <c r="C10" t="s">
         <v>105</v>
@@ -7417,7 +7417,7 @@
         <v>39983</v>
       </c>
       <c r="B12" t="n">
-        <v>133467</v>
+        <v>164302</v>
       </c>
       <c r="C12" t="s">
         <v>120</v>
@@ -7486,7 +7486,7 @@
         <v>39983</v>
       </c>
       <c r="B13" t="n">
-        <v>133468</v>
+        <v>164303</v>
       </c>
       <c r="C13" t="s">
         <v>130</v>
@@ -7551,7 +7551,7 @@
         <v>39983</v>
       </c>
       <c r="B14" t="n">
-        <v>133469</v>
+        <v>164304</v>
       </c>
       <c r="C14" t="s">
         <v>138</v>
@@ -7618,7 +7618,7 @@
         <v>39983</v>
       </c>
       <c r="B15" t="n">
-        <v>133470</v>
+        <v>164305</v>
       </c>
       <c r="C15" t="s">
         <v>146</v>
@@ -7679,7 +7679,7 @@
         <v>39983</v>
       </c>
       <c r="B16" t="n">
-        <v>133471</v>
+        <v>164306</v>
       </c>
       <c r="C16" t="s">
         <v>152</v>
@@ -7807,7 +7807,7 @@
         <v>39983</v>
       </c>
       <c r="B18" t="n">
-        <v>133472</v>
+        <v>164307</v>
       </c>
       <c r="C18" t="s">
         <v>166</v>
@@ -7874,7 +7874,7 @@
         <v>39983</v>
       </c>
       <c r="B19" t="n">
-        <v>133473</v>
+        <v>164308</v>
       </c>
       <c r="C19" t="s">
         <v>171</v>
@@ -8008,7 +8008,7 @@
         <v>39983</v>
       </c>
       <c r="B21" t="n">
-        <v>133474</v>
+        <v>164309</v>
       </c>
       <c r="C21" t="s">
         <v>185</v>
@@ -8144,7 +8144,7 @@
         <v>39983</v>
       </c>
       <c r="B23" t="n">
-        <v>133475</v>
+        <v>164310</v>
       </c>
       <c r="C23" t="s">
         <v>200</v>
@@ -8213,7 +8213,7 @@
         <v>39983</v>
       </c>
       <c r="B24" t="n">
-        <v>133476</v>
+        <v>164311</v>
       </c>
       <c r="C24" t="s">
         <v>207</v>
@@ -8284,7 +8284,7 @@
         <v>39983</v>
       </c>
       <c r="B25" t="n">
-        <v>133477</v>
+        <v>164312</v>
       </c>
       <c r="C25" t="s">
         <v>214</v>
@@ -8355,7 +8355,7 @@
         <v>39983</v>
       </c>
       <c r="B26" t="n">
-        <v>133478</v>
+        <v>164313</v>
       </c>
       <c r="C26" t="s">
         <v>222</v>
@@ -8481,7 +8481,7 @@
         <v>39983</v>
       </c>
       <c r="B28" t="n">
-        <v>133479</v>
+        <v>164314</v>
       </c>
       <c r="C28" t="s">
         <v>235</v>
@@ -8546,7 +8546,7 @@
         <v>39983</v>
       </c>
       <c r="B29" t="n">
-        <v>133480</v>
+        <v>164315</v>
       </c>
       <c r="C29" t="s">
         <v>244</v>
@@ -8678,7 +8678,7 @@
         <v>39983</v>
       </c>
       <c r="B31" t="n">
-        <v>133481</v>
+        <v>164316</v>
       </c>
       <c r="C31" t="s">
         <v>260</v>
@@ -8804,7 +8804,7 @@
         <v>39983</v>
       </c>
       <c r="B33" t="n">
-        <v>133482</v>
+        <v>164317</v>
       </c>
       <c r="C33" t="s">
         <v>278</v>
@@ -8873,7 +8873,7 @@
         <v>39983</v>
       </c>
       <c r="B34" t="n">
-        <v>133483</v>
+        <v>164318</v>
       </c>
       <c r="C34" t="s">
         <v>287</v>
@@ -8944,7 +8944,7 @@
         <v>39983</v>
       </c>
       <c r="B35" t="n">
-        <v>133484</v>
+        <v>164319</v>
       </c>
       <c r="C35" t="s">
         <v>297</v>
@@ -9009,7 +9009,7 @@
         <v>39983</v>
       </c>
       <c r="B36" t="n">
-        <v>133485</v>
+        <v>164320</v>
       </c>
       <c r="C36" t="s">
         <v>306</v>
@@ -9074,7 +9074,7 @@
         <v>39983</v>
       </c>
       <c r="B37" t="n">
-        <v>133486</v>
+        <v>164321</v>
       </c>
       <c r="C37" t="s">
         <v>315</v>
@@ -9145,7 +9145,7 @@
         <v>39983</v>
       </c>
       <c r="B38" t="n">
-        <v>133487</v>
+        <v>164322</v>
       </c>
       <c r="C38" t="s">
         <v>324</v>
@@ -9210,7 +9210,7 @@
         <v>39983</v>
       </c>
       <c r="B39" t="n">
-        <v>133488</v>
+        <v>164323</v>
       </c>
       <c r="C39" t="s">
         <v>330</v>
@@ -9421,7 +9421,7 @@
         <v>39983</v>
       </c>
       <c r="B42" t="n">
-        <v>133489</v>
+        <v>164324</v>
       </c>
       <c r="C42" t="s">
         <v>358</v>
@@ -9492,7 +9492,7 @@
         <v>39983</v>
       </c>
       <c r="B43" t="n">
-        <v>133490</v>
+        <v>164325</v>
       </c>
       <c r="C43" t="s">
         <v>365</v>
@@ -9561,7 +9561,7 @@
         <v>39983</v>
       </c>
       <c r="B44" t="n">
-        <v>133491</v>
+        <v>164326</v>
       </c>
       <c r="C44" t="s">
         <v>375</v>
@@ -9703,7 +9703,7 @@
         <v>39983</v>
       </c>
       <c r="B46" t="n">
-        <v>133492</v>
+        <v>164327</v>
       </c>
       <c r="C46" t="s">
         <v>394</v>
@@ -9774,7 +9774,7 @@
         <v>39983</v>
       </c>
       <c r="B47" t="n">
-        <v>133493</v>
+        <v>164328</v>
       </c>
       <c r="C47" t="s">
         <v>403</v>
@@ -9914,7 +9914,7 @@
         <v>39983</v>
       </c>
       <c r="B49" t="n">
-        <v>133494</v>
+        <v>164329</v>
       </c>
       <c r="C49" t="s">
         <v>419</v>
@@ -9983,7 +9983,7 @@
         <v>39983</v>
       </c>
       <c r="B50" t="n">
-        <v>133495</v>
+        <v>164330</v>
       </c>
       <c r="C50" t="s">
         <v>427</v>
@@ -10052,7 +10052,7 @@
         <v>39983</v>
       </c>
       <c r="B51" t="n">
-        <v>133496</v>
+        <v>164331</v>
       </c>
       <c r="C51" t="s">
         <v>437</v>
@@ -10123,7 +10123,7 @@
         <v>39983</v>
       </c>
       <c r="B52" t="n">
-        <v>133497</v>
+        <v>164332</v>
       </c>
       <c r="C52" t="s">
         <v>446</v>
@@ -10192,7 +10192,7 @@
         <v>39983</v>
       </c>
       <c r="B53" t="n">
-        <v>133498</v>
+        <v>164333</v>
       </c>
       <c r="C53" t="s">
         <v>455</v>
@@ -10334,7 +10334,7 @@
         <v>39983</v>
       </c>
       <c r="B55" t="n">
-        <v>133499</v>
+        <v>164334</v>
       </c>
       <c r="C55" t="s">
         <v>473</v>
@@ -10474,7 +10474,7 @@
         <v>39983</v>
       </c>
       <c r="B57" t="n">
-        <v>133500</v>
+        <v>164335</v>
       </c>
       <c r="C57" t="s">
         <v>488</v>
@@ -10679,7 +10679,7 @@
         <v>39983</v>
       </c>
       <c r="B60" t="n">
-        <v>133501</v>
+        <v>164336</v>
       </c>
       <c r="C60" t="s">
         <v>515</v>
@@ -10744,7 +10744,7 @@
         <v>39983</v>
       </c>
       <c r="B61" t="n">
-        <v>133502</v>
+        <v>164337</v>
       </c>
       <c r="C61" t="s">
         <v>524</v>
@@ -10813,7 +10813,7 @@
         <v>39983</v>
       </c>
       <c r="B62" t="n">
-        <v>133503</v>
+        <v>164338</v>
       </c>
       <c r="C62" t="s">
         <v>533</v>
@@ -10884,7 +10884,7 @@
         <v>39983</v>
       </c>
       <c r="B63" t="n">
-        <v>133504</v>
+        <v>164339</v>
       </c>
       <c r="C63" t="s">
         <v>543</v>
@@ -10953,7 +10953,7 @@
         <v>39983</v>
       </c>
       <c r="B64" t="n">
-        <v>133505</v>
+        <v>164340</v>
       </c>
       <c r="C64" t="s">
         <v>552</v>
@@ -11024,7 +11024,7 @@
         <v>39983</v>
       </c>
       <c r="B65" t="n">
-        <v>133506</v>
+        <v>164341</v>
       </c>
       <c r="C65" t="s">
         <v>559</v>
@@ -11095,7 +11095,7 @@
         <v>39983</v>
       </c>
       <c r="B66" t="n">
-        <v>133507</v>
+        <v>164342</v>
       </c>
       <c r="C66" t="s">
         <v>568</v>
@@ -11156,7 +11156,7 @@
         <v>39983</v>
       </c>
       <c r="B67" t="n">
-        <v>133508</v>
+        <v>164343</v>
       </c>
       <c r="C67" t="s">
         <v>577</v>
@@ -11221,7 +11221,7 @@
         <v>39983</v>
       </c>
       <c r="B68" t="n">
-        <v>133509</v>
+        <v>164344</v>
       </c>
       <c r="C68" t="s">
         <v>583</v>
@@ -11286,7 +11286,7 @@
         <v>39983</v>
       </c>
       <c r="B69" t="n">
-        <v>133510</v>
+        <v>164345</v>
       </c>
       <c r="C69" t="s">
         <v>593</v>
@@ -11493,7 +11493,7 @@
         <v>39983</v>
       </c>
       <c r="B72" t="n">
-        <v>133511</v>
+        <v>164346</v>
       </c>
       <c r="C72" t="s">
         <v>620</v>
@@ -11564,7 +11564,7 @@
         <v>39983</v>
       </c>
       <c r="B73" t="n">
-        <v>133512</v>
+        <v>164347</v>
       </c>
       <c r="C73" t="s">
         <v>629</v>
@@ -11704,7 +11704,7 @@
         <v>39983</v>
       </c>
       <c r="B75" t="n">
-        <v>133513</v>
+        <v>164348</v>
       </c>
       <c r="C75" t="s">
         <v>644</v>
@@ -11775,7 +11775,7 @@
         <v>39983</v>
       </c>
       <c r="B76" t="n">
-        <v>133514</v>
+        <v>164349</v>
       </c>
       <c r="C76" t="s">
         <v>653</v>
@@ -11844,7 +11844,7 @@
         <v>39983</v>
       </c>
       <c r="B77" t="n">
-        <v>133515</v>
+        <v>164350</v>
       </c>
       <c r="C77" t="s">
         <v>662</v>
@@ -11913,7 +11913,7 @@
         <v>39983</v>
       </c>
       <c r="B78" t="n">
-        <v>133516</v>
+        <v>164351</v>
       </c>
       <c r="C78" t="s">
         <v>671</v>
@@ -11982,7 +11982,7 @@
         <v>39983</v>
       </c>
       <c r="B79" t="n">
-        <v>133517</v>
+        <v>164352</v>
       </c>
       <c r="C79" t="s">
         <v>680</v>
@@ -12053,7 +12053,7 @@
         <v>39983</v>
       </c>
       <c r="B80" t="n">
-        <v>133518</v>
+        <v>164353</v>
       </c>
       <c r="C80" t="s">
         <v>689</v>
@@ -12118,7 +12118,7 @@
         <v>39983</v>
       </c>
       <c r="B81" t="n">
-        <v>133519</v>
+        <v>164354</v>
       </c>
       <c r="C81" t="s">
         <v>698</v>
@@ -12189,7 +12189,7 @@
         <v>39983</v>
       </c>
       <c r="B82" t="n">
-        <v>133520</v>
+        <v>164355</v>
       </c>
       <c r="C82" t="s">
         <v>707</v>
@@ -12254,7 +12254,7 @@
         <v>39983</v>
       </c>
       <c r="B83" t="n">
-        <v>133521</v>
+        <v>164356</v>
       </c>
       <c r="C83" t="s">
         <v>716</v>
@@ -12325,7 +12325,7 @@
         <v>39983</v>
       </c>
       <c r="B84" t="n">
-        <v>133522</v>
+        <v>164357</v>
       </c>
       <c r="C84" t="s">
         <v>725</v>
@@ -12394,7 +12394,7 @@
         <v>39983</v>
       </c>
       <c r="B85" t="n">
-        <v>133523</v>
+        <v>164358</v>
       </c>
       <c r="C85" t="s">
         <v>734</v>
@@ -12530,7 +12530,7 @@
         <v>39983</v>
       </c>
       <c r="B87" t="n">
-        <v>133524</v>
+        <v>164359</v>
       </c>
       <c r="C87" t="s">
         <v>750</v>
@@ -12601,7 +12601,7 @@
         <v>39983</v>
       </c>
       <c r="B88" t="n">
-        <v>133525</v>
+        <v>164360</v>
       </c>
       <c r="C88" t="s">
         <v>759</v>
@@ -12670,7 +12670,7 @@
         <v>39983</v>
       </c>
       <c r="B89" t="n">
-        <v>133526</v>
+        <v>164361</v>
       </c>
       <c r="C89" t="s">
         <v>768</v>
@@ -12741,7 +12741,7 @@
         <v>39983</v>
       </c>
       <c r="B90" t="n">
-        <v>133527</v>
+        <v>164362</v>
       </c>
       <c r="C90" t="s">
         <v>777</v>
@@ -12810,7 +12810,7 @@
         <v>39983</v>
       </c>
       <c r="B91" t="n">
-        <v>133528</v>
+        <v>164363</v>
       </c>
       <c r="C91" t="s">
         <v>784</v>
@@ -12875,7 +12875,7 @@
         <v>39983</v>
       </c>
       <c r="B92" t="n">
-        <v>133529</v>
+        <v>164364</v>
       </c>
       <c r="C92" t="s">
         <v>793</v>
@@ -12946,7 +12946,7 @@
         <v>39983</v>
       </c>
       <c r="B93" t="n">
-        <v>133530</v>
+        <v>164365</v>
       </c>
       <c r="C93" t="s">
         <v>803</v>
@@ -13017,7 +13017,7 @@
         <v>39983</v>
       </c>
       <c r="B94" t="n">
-        <v>133531</v>
+        <v>164366</v>
       </c>
       <c r="C94" t="s">
         <v>812</v>
@@ -13086,7 +13086,7 @@
         <v>39983</v>
       </c>
       <c r="B95" t="n">
-        <v>133532</v>
+        <v>164367</v>
       </c>
       <c r="C95" t="s">
         <v>821</v>
@@ -13226,7 +13226,7 @@
         <v>39983</v>
       </c>
       <c r="B97" t="n">
-        <v>133533</v>
+        <v>164368</v>
       </c>
       <c r="C97" t="s">
         <v>839</v>
@@ -13356,7 +13356,7 @@
         <v>39983</v>
       </c>
       <c r="B99" t="n">
-        <v>133534</v>
+        <v>164369</v>
       </c>
       <c r="C99" t="s">
         <v>857</v>
@@ -13425,7 +13425,7 @@
         <v>39983</v>
       </c>
       <c r="B100" t="n">
-        <v>133535</v>
+        <v>164370</v>
       </c>
       <c r="C100" t="s">
         <v>865</v>
@@ -13496,7 +13496,7 @@
         <v>39983</v>
       </c>
       <c r="B101" t="n">
-        <v>133536</v>
+        <v>164371</v>
       </c>
       <c r="C101" t="s">
         <v>874</v>
@@ -13565,7 +13565,7 @@
         <v>39983</v>
       </c>
       <c r="B102" t="n">
-        <v>133537</v>
+        <v>164372</v>
       </c>
       <c r="C102" t="s">
         <v>883</v>
@@ -13760,7 +13760,7 @@
         <v>39983</v>
       </c>
       <c r="B105" t="n">
-        <v>133538</v>
+        <v>164373</v>
       </c>
       <c r="C105" t="s">
         <v>908</v>
@@ -13898,7 +13898,7 @@
         <v>39983</v>
       </c>
       <c r="B107" t="n">
-        <v>133539</v>
+        <v>164374</v>
       </c>
       <c r="C107" t="s">
         <v>921</v>
@@ -14034,7 +14034,7 @@
         <v>39983</v>
       </c>
       <c r="B109" t="n">
-        <v>133540</v>
+        <v>164375</v>
       </c>
       <c r="C109" t="s">
         <v>939</v>
@@ -14105,7 +14105,7 @@
         <v>39983</v>
       </c>
       <c r="B110" t="n">
-        <v>133541</v>
+        <v>164376</v>
       </c>
       <c r="C110" t="s">
         <v>949</v>
@@ -14176,7 +14176,7 @@
         <v>39983</v>
       </c>
       <c r="B111" t="n">
-        <v>133542</v>
+        <v>164377</v>
       </c>
       <c r="C111" t="s">
         <v>958</v>
@@ -14245,7 +14245,7 @@
         <v>39983</v>
       </c>
       <c r="B112" t="n">
-        <v>133543</v>
+        <v>164378</v>
       </c>
       <c r="C112" t="s">
         <v>965</v>
@@ -14314,7 +14314,7 @@
         <v>39983</v>
       </c>
       <c r="B113" t="n">
-        <v>133544</v>
+        <v>164379</v>
       </c>
       <c r="C113" t="s">
         <v>971</v>
@@ -14383,7 +14383,7 @@
         <v>39983</v>
       </c>
       <c r="B114" t="n">
-        <v>133545</v>
+        <v>164380</v>
       </c>
       <c r="C114" t="s">
         <v>979</v>
@@ -14454,7 +14454,7 @@
         <v>39983</v>
       </c>
       <c r="B115" t="n">
-        <v>133546</v>
+        <v>164381</v>
       </c>
       <c r="C115" t="s">
         <v>987</v>
@@ -14523,7 +14523,7 @@
         <v>39983</v>
       </c>
       <c r="B116" t="n">
-        <v>133547</v>
+        <v>164382</v>
       </c>
       <c r="C116" t="s">
         <v>996</v>
@@ -14801,7 +14801,7 @@
         <v>39983</v>
       </c>
       <c r="B120" t="n">
-        <v>133548</v>
+        <v>164383</v>
       </c>
       <c r="C120" t="s">
         <v>1028</v>
@@ -14866,7 +14866,7 @@
         <v>39983</v>
       </c>
       <c r="B121" t="n">
-        <v>133549</v>
+        <v>164384</v>
       </c>
       <c r="C121" t="s">
         <v>1037</v>
@@ -15008,7 +15008,7 @@
         <v>39983</v>
       </c>
       <c r="B123" t="n">
-        <v>133550</v>
+        <v>164385</v>
       </c>
       <c r="C123" t="s">
         <v>1054</v>
@@ -15077,7 +15077,7 @@
         <v>39983</v>
       </c>
       <c r="B124" t="n">
-        <v>133551</v>
+        <v>164386</v>
       </c>
       <c r="C124" t="s">
         <v>1063</v>
@@ -15146,7 +15146,7 @@
         <v>39983</v>
       </c>
       <c r="B125" t="n">
-        <v>133552</v>
+        <v>164387</v>
       </c>
       <c r="C125" t="s">
         <v>1070</v>
@@ -15284,7 +15284,7 @@
         <v>39983</v>
       </c>
       <c r="B127" t="n">
-        <v>133553</v>
+        <v>164388</v>
       </c>
       <c r="C127" t="s">
         <v>1084</v>
@@ -15359,7 +15359,7 @@
         <v>39983</v>
       </c>
       <c r="B128" t="n">
-        <v>133554</v>
+        <v>164389</v>
       </c>
       <c r="C128" t="s">
         <v>1091</v>
@@ -15430,7 +15430,7 @@
         <v>39983</v>
       </c>
       <c r="B129" t="n">
-        <v>133555</v>
+        <v>164390</v>
       </c>
       <c r="C129" t="s">
         <v>1100</v>
@@ -15505,7 +15505,7 @@
         <v>39983</v>
       </c>
       <c r="B130" t="n">
-        <v>133556</v>
+        <v>164391</v>
       </c>
       <c r="C130" t="s">
         <v>1110</v>
@@ -15580,7 +15580,7 @@
         <v>39983</v>
       </c>
       <c r="B131" t="n">
-        <v>133557</v>
+        <v>164392</v>
       </c>
       <c r="C131" t="s">
         <v>1116</v>
@@ -15651,7 +15651,7 @@
         <v>39983</v>
       </c>
       <c r="B132" t="n">
-        <v>133558</v>
+        <v>164393</v>
       </c>
       <c r="C132" t="s">
         <v>1123</v>
@@ -15726,7 +15726,7 @@
         <v>39983</v>
       </c>
       <c r="B133" t="n">
-        <v>133559</v>
+        <v>164394</v>
       </c>
       <c r="C133" t="s">
         <v>1129</v>
@@ -15876,7 +15876,7 @@
         <v>39983</v>
       </c>
       <c r="B135" t="n">
-        <v>133560</v>
+        <v>164395</v>
       </c>
       <c r="C135" t="s">
         <v>1142</v>
@@ -15947,7 +15947,7 @@
         <v>39983</v>
       </c>
       <c r="B136" t="n">
-        <v>133561</v>
+        <v>164396</v>
       </c>
       <c r="C136" t="s">
         <v>1147</v>
@@ -16014,7 +16014,7 @@
         <v>39983</v>
       </c>
       <c r="B137" t="n">
-        <v>133562</v>
+        <v>164397</v>
       </c>
       <c r="C137" t="s">
         <v>1154</v>
@@ -16085,7 +16085,7 @@
         <v>39983</v>
       </c>
       <c r="B138" t="n">
-        <v>133563</v>
+        <v>164398</v>
       </c>
       <c r="C138" t="s">
         <v>1161</v>
@@ -16227,7 +16227,7 @@
         <v>39983</v>
       </c>
       <c r="B140" t="n">
-        <v>133564</v>
+        <v>164399</v>
       </c>
       <c r="C140" t="s">
         <v>1172</v>
@@ -16359,7 +16359,7 @@
         <v>39983</v>
       </c>
       <c r="B142" t="n">
-        <v>133565</v>
+        <v>164400</v>
       </c>
       <c r="C142" t="s">
         <v>1185</v>
@@ -16430,7 +16430,7 @@
         <v>39983</v>
       </c>
       <c r="B143" t="n">
-        <v>133566</v>
+        <v>164401</v>
       </c>
       <c r="C143" t="s">
         <v>1191</v>
@@ -16505,7 +16505,7 @@
         <v>39983</v>
       </c>
       <c r="B144" t="n">
-        <v>133567</v>
+        <v>164402</v>
       </c>
       <c r="C144" t="s">
         <v>1198</v>
@@ -16580,7 +16580,7 @@
         <v>39983</v>
       </c>
       <c r="B145" t="n">
-        <v>133568</v>
+        <v>164403</v>
       </c>
       <c r="C145" t="s">
         <v>1205</v>
@@ -16651,7 +16651,7 @@
         <v>39983</v>
       </c>
       <c r="B146" t="n">
-        <v>133569</v>
+        <v>164404</v>
       </c>
       <c r="C146" t="s">
         <v>1212</v>
@@ -16716,7 +16716,7 @@
         <v>39983</v>
       </c>
       <c r="B147" t="n">
-        <v>133570</v>
+        <v>164405</v>
       </c>
       <c r="C147" t="s">
         <v>1219</v>
@@ -16850,7 +16850,7 @@
         <v>39983</v>
       </c>
       <c r="B149" t="n">
-        <v>133571</v>
+        <v>164406</v>
       </c>
       <c r="C149" t="s">
         <v>1234</v>
@@ -16925,7 +16925,7 @@
         <v>39983</v>
       </c>
       <c r="B150" t="n">
-        <v>133572</v>
+        <v>164407</v>
       </c>
       <c r="C150" t="s">
         <v>1243</v>
@@ -17000,7 +17000,7 @@
         <v>39983</v>
       </c>
       <c r="B151" t="n">
-        <v>133573</v>
+        <v>164408</v>
       </c>
       <c r="C151" t="s">
         <v>1250</v>
@@ -17191,7 +17191,7 @@
         <v>39983</v>
       </c>
       <c r="B154" t="n">
-        <v>133574</v>
+        <v>164409</v>
       </c>
       <c r="C154" t="s">
         <v>1273</v>
@@ -17266,7 +17266,7 @@
         <v>39983</v>
       </c>
       <c r="B155" t="n">
-        <v>133575</v>
+        <v>164410</v>
       </c>
       <c r="C155" t="s">
         <v>1279</v>
@@ -17327,7 +17327,7 @@
         <v>39983</v>
       </c>
       <c r="B156" t="n">
-        <v>133576</v>
+        <v>164411</v>
       </c>
       <c r="C156" t="s">
         <v>1288</v>
@@ -17402,7 +17402,7 @@
         <v>39983</v>
       </c>
       <c r="B157" t="n">
-        <v>133577</v>
+        <v>164412</v>
       </c>
       <c r="C157" t="s">
         <v>1297</v>
@@ -17471,7 +17471,7 @@
         <v>39983</v>
       </c>
       <c r="B158" t="n">
-        <v>133578</v>
+        <v>164413</v>
       </c>
       <c r="C158" t="s">
         <v>1304</v>
@@ -17546,7 +17546,7 @@
         <v>39983</v>
       </c>
       <c r="B159" t="n">
-        <v>133579</v>
+        <v>164414</v>
       </c>
       <c r="C159" t="s">
         <v>1311</v>
@@ -17615,7 +17615,7 @@
         <v>39983</v>
       </c>
       <c r="B160" t="n">
-        <v>133580</v>
+        <v>164415</v>
       </c>
       <c r="C160" t="s">
         <v>1320</v>
@@ -17751,7 +17751,7 @@
         <v>39983</v>
       </c>
       <c r="B162" t="n">
-        <v>133581</v>
+        <v>164416</v>
       </c>
       <c r="C162" t="s">
         <v>1333</v>
@@ -17826,7 +17826,7 @@
         <v>39983</v>
       </c>
       <c r="B163" t="n">
-        <v>133582</v>
+        <v>164417</v>
       </c>
       <c r="C163" t="s">
         <v>1340</v>
@@ -17897,7 +17897,7 @@
         <v>39983</v>
       </c>
       <c r="B164" t="n">
-        <v>133583</v>
+        <v>164418</v>
       </c>
       <c r="C164" t="s">
         <v>1345</v>
@@ -18039,7 +18039,7 @@
         <v>39983</v>
       </c>
       <c r="B166" t="n">
-        <v>133584</v>
+        <v>164419</v>
       </c>
       <c r="C166" t="s">
         <v>1357</v>
@@ -18110,7 +18110,7 @@
         <v>39983</v>
       </c>
       <c r="B167" t="n">
-        <v>133585</v>
+        <v>164420</v>
       </c>
       <c r="C167" t="s">
         <v>1362</v>
@@ -18181,7 +18181,7 @@
         <v>39983</v>
       </c>
       <c r="B168" t="n">
-        <v>133586</v>
+        <v>164421</v>
       </c>
       <c r="C168" t="s">
         <v>1369</v>
@@ -18252,7 +18252,7 @@
         <v>39983</v>
       </c>
       <c r="B169" t="n">
-        <v>133587</v>
+        <v>164422</v>
       </c>
       <c r="C169" t="s">
         <v>1376</v>
@@ -18323,7 +18323,7 @@
         <v>39983</v>
       </c>
       <c r="B170" t="n">
-        <v>133588</v>
+        <v>164423</v>
       </c>
       <c r="C170" t="s">
         <v>1381</v>
@@ -18394,7 +18394,7 @@
         <v>39983</v>
       </c>
       <c r="B171" t="n">
-        <v>133589</v>
+        <v>164424</v>
       </c>
       <c r="C171" t="s">
         <v>1388</v>
@@ -18532,7 +18532,7 @@
         <v>39983</v>
       </c>
       <c r="B173" t="n">
-        <v>133590</v>
+        <v>164425</v>
       </c>
       <c r="C173" t="s">
         <v>1399</v>
@@ -18603,7 +18603,7 @@
         <v>39983</v>
       </c>
       <c r="B174" t="n">
-        <v>133591</v>
+        <v>164426</v>
       </c>
       <c r="C174" t="s">
         <v>1406</v>
@@ -18674,7 +18674,7 @@
         <v>39983</v>
       </c>
       <c r="B175" t="n">
-        <v>133592</v>
+        <v>164427</v>
       </c>
       <c r="C175" t="s">
         <v>1411</v>
@@ -18820,7 +18820,7 @@
         <v>39983</v>
       </c>
       <c r="B177" t="n">
-        <v>133593</v>
+        <v>164428</v>
       </c>
       <c r="C177" t="s">
         <v>1425</v>
@@ -18895,7 +18895,7 @@
         <v>39983</v>
       </c>
       <c r="B178" t="n">
-        <v>133594</v>
+        <v>164429</v>
       </c>
       <c r="C178" t="s">
         <v>1432</v>
@@ -18960,7 +18960,7 @@
         <v>39983</v>
       </c>
       <c r="B179" t="n">
-        <v>133595</v>
+        <v>164430</v>
       </c>
       <c r="C179" t="s">
         <v>1438</v>
@@ -19021,7 +19021,7 @@
         <v>39983</v>
       </c>
       <c r="B180" t="n">
-        <v>133596</v>
+        <v>164431</v>
       </c>
       <c r="C180" t="s">
         <v>1445</v>
@@ -19096,7 +19096,7 @@
         <v>39983</v>
       </c>
       <c r="B181" t="n">
-        <v>133597</v>
+        <v>164432</v>
       </c>
       <c r="C181" t="s">
         <v>1452</v>
@@ -19157,7 +19157,7 @@
         <v>39983</v>
       </c>
       <c r="B182" t="n">
-        <v>133598</v>
+        <v>164433</v>
       </c>
       <c r="C182" t="s">
         <v>1457</v>
@@ -19295,7 +19295,7 @@
         <v>39983</v>
       </c>
       <c r="B184" t="n">
-        <v>133599</v>
+        <v>164434</v>
       </c>
       <c r="C184" t="s">
         <v>1470</v>
@@ -19366,7 +19366,7 @@
         <v>39983</v>
       </c>
       <c r="B185" t="n">
-        <v>133600</v>
+        <v>164435</v>
       </c>
       <c r="C185" t="s">
         <v>1477</v>
@@ -19437,7 +19437,7 @@
         <v>39983</v>
       </c>
       <c r="B186" t="n">
-        <v>133601</v>
+        <v>164436</v>
       </c>
       <c r="C186" t="s">
         <v>1486</v>
@@ -19512,7 +19512,7 @@
         <v>39983</v>
       </c>
       <c r="B187" t="n">
-        <v>133602</v>
+        <v>164437</v>
       </c>
       <c r="C187" t="s">
         <v>1493</v>
@@ -19581,7 +19581,7 @@
         <v>39983</v>
       </c>
       <c r="B188" t="n">
-        <v>133603</v>
+        <v>164438</v>
       </c>
       <c r="C188" t="s">
         <v>1500</v>
@@ -19656,7 +19656,7 @@
         <v>39983</v>
       </c>
       <c r="B189" t="n">
-        <v>133604</v>
+        <v>164439</v>
       </c>
       <c r="C189" t="s">
         <v>1506</v>
@@ -19723,7 +19723,7 @@
         <v>39983</v>
       </c>
       <c r="B190" t="n">
-        <v>133605</v>
+        <v>164440</v>
       </c>
       <c r="C190" t="s">
         <v>1513</v>
@@ -19792,7 +19792,7 @@
         <v>39983</v>
       </c>
       <c r="B191" t="n">
-        <v>133606</v>
+        <v>164441</v>
       </c>
       <c r="C191" t="s">
         <v>1522</v>
@@ -19857,7 +19857,7 @@
         <v>39983</v>
       </c>
       <c r="B192" t="n">
-        <v>133607</v>
+        <v>164442</v>
       </c>
       <c r="C192" t="s">
         <v>1529</v>
@@ -19928,7 +19928,7 @@
         <v>39983</v>
       </c>
       <c r="B193" t="n">
-        <v>133608</v>
+        <v>164443</v>
       </c>
       <c r="C193" t="s">
         <v>1537</v>
@@ -19993,7 +19993,7 @@
         <v>39983</v>
       </c>
       <c r="B194" t="n">
-        <v>133609</v>
+        <v>164444</v>
       </c>
       <c r="C194" t="s">
         <v>1544</v>
@@ -20058,7 +20058,7 @@
         <v>39983</v>
       </c>
       <c r="B195" t="n">
-        <v>133610</v>
+        <v>164445</v>
       </c>
       <c r="C195" t="s">
         <v>1551</v>
@@ -20123,7 +20123,7 @@
         <v>39983</v>
       </c>
       <c r="B196" t="n">
-        <v>133611</v>
+        <v>164446</v>
       </c>
       <c r="C196" t="s">
         <v>1559</v>
@@ -20188,7 +20188,7 @@
         <v>39983</v>
       </c>
       <c r="B197" t="n">
-        <v>133612</v>
+        <v>164447</v>
       </c>
       <c r="C197" t="s">
         <v>1566</v>
@@ -20259,7 +20259,7 @@
         <v>39983</v>
       </c>
       <c r="B198" t="n">
-        <v>133613</v>
+        <v>164448</v>
       </c>
       <c r="C198" t="s">
         <v>1575</v>
@@ -20324,7 +20324,7 @@
         <v>39983</v>
       </c>
       <c r="B199" t="n">
-        <v>133614</v>
+        <v>164449</v>
       </c>
       <c r="C199" t="s">
         <v>1581</v>
@@ -20399,7 +20399,7 @@
         <v>39983</v>
       </c>
       <c r="B200" t="n">
-        <v>133615</v>
+        <v>164450</v>
       </c>
       <c r="C200" t="s">
         <v>1588</v>
@@ -20474,7 +20474,7 @@
         <v>39983</v>
       </c>
       <c r="B201" t="n">
-        <v>133616</v>
+        <v>164451</v>
       </c>
       <c r="C201" t="s">
         <v>1597</v>
@@ -20549,7 +20549,7 @@
         <v>39983</v>
       </c>
       <c r="B202" t="n">
-        <v>133617</v>
+        <v>164452</v>
       </c>
       <c r="C202" t="s">
         <v>1604</v>
@@ -20620,7 +20620,7 @@
         <v>39983</v>
       </c>
       <c r="B203" t="n">
-        <v>133618</v>
+        <v>164453</v>
       </c>
       <c r="C203" t="s">
         <v>1613</v>
@@ -20685,7 +20685,7 @@
         <v>39983</v>
       </c>
       <c r="B204" t="n">
-        <v>133619</v>
+        <v>164454</v>
       </c>
       <c r="C204" t="s">
         <v>1620</v>
@@ -20750,7 +20750,7 @@
         <v>39983</v>
       </c>
       <c r="B205" t="n">
-        <v>133620</v>
+        <v>164455</v>
       </c>
       <c r="C205" t="s">
         <v>1627</v>
@@ -20896,7 +20896,7 @@
         <v>39983</v>
       </c>
       <c r="B207" t="n">
-        <v>133621</v>
+        <v>164456</v>
       </c>
       <c r="C207" t="s">
         <v>1645</v>
@@ -20961,7 +20961,7 @@
         <v>39983</v>
       </c>
       <c r="B208" t="n">
-        <v>133622</v>
+        <v>164457</v>
       </c>
       <c r="C208" t="s">
         <v>1654</v>
@@ -21030,7 +21030,7 @@
         <v>39983</v>
       </c>
       <c r="B209" t="n">
-        <v>133623</v>
+        <v>164458</v>
       </c>
       <c r="C209" t="s">
         <v>1664</v>
@@ -21105,7 +21105,7 @@
         <v>39983</v>
       </c>
       <c r="B210" t="n">
-        <v>133624</v>
+        <v>164459</v>
       </c>
       <c r="C210" t="s">
         <v>1673</v>
@@ -21170,7 +21170,7 @@
         <v>39983</v>
       </c>
       <c r="B211" t="n">
-        <v>133625</v>
+        <v>164460</v>
       </c>
       <c r="C211" t="s">
         <v>1682</v>
@@ -21245,7 +21245,7 @@
         <v>39983</v>
       </c>
       <c r="B212" t="n">
-        <v>133626</v>
+        <v>164461</v>
       </c>
       <c r="C212" t="s">
         <v>1688</v>
@@ -21316,7 +21316,7 @@
         <v>39983</v>
       </c>
       <c r="B213" t="n">
-        <v>133627</v>
+        <v>164462</v>
       </c>
       <c r="C213" t="s">
         <v>1697</v>
@@ -21381,7 +21381,7 @@
         <v>39983</v>
       </c>
       <c r="B214" t="n">
-        <v>133628</v>
+        <v>164463</v>
       </c>
       <c r="C214" t="s">
         <v>1707</v>
@@ -21452,7 +21452,7 @@
         <v>39983</v>
       </c>
       <c r="B215" t="n">
-        <v>133629</v>
+        <v>164464</v>
       </c>
       <c r="C215" t="s">
         <v>1714</v>
@@ -21527,7 +21527,7 @@
         <v>39983</v>
       </c>
       <c r="B216" t="n">
-        <v>133630</v>
+        <v>164465</v>
       </c>
       <c r="C216" t="s">
         <v>1723</v>
@@ -21592,7 +21592,7 @@
         <v>39983</v>
       </c>
       <c r="B217" t="n">
-        <v>133631</v>
+        <v>164466</v>
       </c>
       <c r="C217" t="s">
         <v>1730</v>
@@ -21661,7 +21661,7 @@
         <v>39983</v>
       </c>
       <c r="B218" t="n">
-        <v>133632</v>
+        <v>164467</v>
       </c>
       <c r="C218" t="s">
         <v>1738</v>
@@ -21736,7 +21736,7 @@
         <v>39983</v>
       </c>
       <c r="B219" t="n">
-        <v>133633</v>
+        <v>164468</v>
       </c>
       <c r="C219" t="s">
         <v>1747</v>
@@ -21811,7 +21811,7 @@
         <v>39983</v>
       </c>
       <c r="B220" t="n">
-        <v>133634</v>
+        <v>164469</v>
       </c>
       <c r="C220" t="s">
         <v>1754</v>
@@ -21886,7 +21886,7 @@
         <v>39983</v>
       </c>
       <c r="B221" t="n">
-        <v>133635</v>
+        <v>164470</v>
       </c>
       <c r="C221" t="s">
         <v>1761</v>
@@ -21951,7 +21951,7 @@
         <v>39983</v>
       </c>
       <c r="B222" t="n">
-        <v>133636</v>
+        <v>164471</v>
       </c>
       <c r="C222" t="s">
         <v>1768</v>
@@ -22016,7 +22016,7 @@
         <v>39983</v>
       </c>
       <c r="B223" t="n">
-        <v>133637</v>
+        <v>164472</v>
       </c>
       <c r="C223" t="s">
         <v>1775</v>
@@ -22091,7 +22091,7 @@
         <v>39983</v>
       </c>
       <c r="B224" t="n">
-        <v>133638</v>
+        <v>164473</v>
       </c>
       <c r="C224" t="s">
         <v>1781</v>
@@ -22156,7 +22156,7 @@
         <v>39983</v>
       </c>
       <c r="B225" t="n">
-        <v>133639</v>
+        <v>164474</v>
       </c>
       <c r="C225" t="s">
         <v>1788</v>
@@ -22221,7 +22221,7 @@
         <v>39983</v>
       </c>
       <c r="B226" t="n">
-        <v>133640</v>
+        <v>164475</v>
       </c>
       <c r="C226" t="s">
         <v>1795</v>
@@ -22290,7 +22290,7 @@
         <v>39983</v>
       </c>
       <c r="B227" t="n">
-        <v>133641</v>
+        <v>164476</v>
       </c>
       <c r="C227" t="s">
         <v>1803</v>
@@ -22365,7 +22365,7 @@
         <v>39983</v>
       </c>
       <c r="B228" t="n">
-        <v>133642</v>
+        <v>164477</v>
       </c>
       <c r="C228" t="s">
         <v>1810</v>
@@ -22430,7 +22430,7 @@
         <v>39983</v>
       </c>
       <c r="B229" t="n">
-        <v>133643</v>
+        <v>164478</v>
       </c>
       <c r="C229" t="s">
         <v>1817</v>
@@ -22505,7 +22505,7 @@
         <v>39983</v>
       </c>
       <c r="B230" t="n">
-        <v>133644</v>
+        <v>164479</v>
       </c>
       <c r="C230" t="s">
         <v>1824</v>
@@ -22641,7 +22641,7 @@
         <v>39983</v>
       </c>
       <c r="B232" t="n">
-        <v>133645</v>
+        <v>164480</v>
       </c>
       <c r="C232" t="s">
         <v>1837</v>
@@ -22712,7 +22712,7 @@
         <v>39983</v>
       </c>
       <c r="B233" t="n">
-        <v>133646</v>
+        <v>164481</v>
       </c>
       <c r="C233" t="s">
         <v>1845</v>
@@ -22777,7 +22777,7 @@
         <v>39983</v>
       </c>
       <c r="B234" t="n">
-        <v>133647</v>
+        <v>164482</v>
       </c>
       <c r="C234" t="s">
         <v>1852</v>
@@ -22923,7 +22923,7 @@
         <v>39983</v>
       </c>
       <c r="B236" t="n">
-        <v>133648</v>
+        <v>164483</v>
       </c>
       <c r="C236" t="s">
         <v>1868</v>
@@ -22994,7 +22994,7 @@
         <v>39983</v>
       </c>
       <c r="B237" t="n">
-        <v>133649</v>
+        <v>164484</v>
       </c>
       <c r="C237" t="s">
         <v>1875</v>
@@ -23065,7 +23065,7 @@
         <v>39983</v>
       </c>
       <c r="B238" t="n">
-        <v>133650</v>
+        <v>164485</v>
       </c>
       <c r="C238" t="s">
         <v>1881</v>
@@ -23134,7 +23134,7 @@
         <v>39983</v>
       </c>
       <c r="B239" t="n">
-        <v>133651</v>
+        <v>164486</v>
       </c>
       <c r="C239" t="s">
         <v>1888</v>
@@ -23280,7 +23280,7 @@
         <v>39983</v>
       </c>
       <c r="B241" t="n">
-        <v>133652</v>
+        <v>164487</v>
       </c>
       <c r="C241" t="s">
         <v>1901</v>
@@ -23349,7 +23349,7 @@
         <v>39983</v>
       </c>
       <c r="B242" t="n">
-        <v>133653</v>
+        <v>164488</v>
       </c>
       <c r="C242" t="s">
         <v>1908</v>
@@ -23495,7 +23495,7 @@
         <v>39983</v>
       </c>
       <c r="B244" t="n">
-        <v>133654</v>
+        <v>164489</v>
       </c>
       <c r="C244" t="s">
         <v>1922</v>
@@ -23570,7 +23570,7 @@
         <v>39983</v>
       </c>
       <c r="B245" t="n">
-        <v>133655</v>
+        <v>164490</v>
       </c>
       <c r="C245" t="s">
         <v>1928</v>
@@ -23635,7 +23635,7 @@
         <v>39983</v>
       </c>
       <c r="B246" t="n">
-        <v>133656</v>
+        <v>164491</v>
       </c>
       <c r="C246" t="s">
         <v>1935</v>
@@ -23710,7 +23710,7 @@
         <v>39983</v>
       </c>
       <c r="B247" t="n">
-        <v>133657</v>
+        <v>164492</v>
       </c>
       <c r="C247" t="s">
         <v>1942</v>
@@ -23781,7 +23781,7 @@
         <v>39983</v>
       </c>
       <c r="B248" t="n">
-        <v>133658</v>
+        <v>164493</v>
       </c>
       <c r="C248" t="s">
         <v>1951</v>
@@ -23852,7 +23852,7 @@
         <v>39983</v>
       </c>
       <c r="B249" t="n">
-        <v>133659</v>
+        <v>164494</v>
       </c>
       <c r="C249" t="s">
         <v>1958</v>
@@ -23923,7 +23923,7 @@
         <v>39983</v>
       </c>
       <c r="B250" t="n">
-        <v>133660</v>
+        <v>164495</v>
       </c>
       <c r="C250" t="s">
         <v>1966</v>
@@ -24073,7 +24073,7 @@
         <v>39983</v>
       </c>
       <c r="B252" t="n">
-        <v>133661</v>
+        <v>164496</v>
       </c>
       <c r="C252" t="s">
         <v>1983</v>
@@ -24134,7 +24134,7 @@
         <v>39983</v>
       </c>
       <c r="B253" t="n">
-        <v>133662</v>
+        <v>164497</v>
       </c>
       <c r="C253" t="s">
         <v>1990</v>
@@ -24199,7 +24199,7 @@
         <v>39983</v>
       </c>
       <c r="B254" t="n">
-        <v>133663</v>
+        <v>164498</v>
       </c>
       <c r="C254" t="s">
         <v>1999</v>
@@ -24274,7 +24274,7 @@
         <v>39983</v>
       </c>
       <c r="B255" t="n">
-        <v>133664</v>
+        <v>164499</v>
       </c>
       <c r="C255" t="s">
         <v>2008</v>
@@ -24345,7 +24345,7 @@
         <v>39983</v>
       </c>
       <c r="B256" t="n">
-        <v>133665</v>
+        <v>164500</v>
       </c>
       <c r="C256" t="s">
         <v>2017</v>
@@ -24420,7 +24420,7 @@
         <v>39983</v>
       </c>
       <c r="B257" t="n">
-        <v>133666</v>
+        <v>164501</v>
       </c>
       <c r="C257" t="s">
         <v>2026</v>
@@ -24564,7 +24564,7 @@
         <v>39983</v>
       </c>
       <c r="B259" t="n">
-        <v>133667</v>
+        <v>164502</v>
       </c>
       <c r="C259" t="s">
         <v>2042</v>
@@ -24635,7 +24635,7 @@
         <v>39983</v>
       </c>
       <c r="B260" t="n">
-        <v>133668</v>
+        <v>164503</v>
       </c>
       <c r="C260" t="s">
         <v>2048</v>
